--- a/biology/Histoire de la zoologie et de la botanique/Guy_G._Musser/Guy_G._Musser.xlsx
+++ b/biology/Histoire de la zoologie et de la botanique/Guy_G._Musser/Guy_G._Musser.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Guy G. Musser (né le 10 août 1936 à Salt Lake City dans l'Utah[1] et mort en octobre 2019[2]) est un mammalogiste américain.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Guy G. Musser (né le 10 août 1936 à Salt Lake City dans l'Utah et mort en octobre 2019) est un mammalogiste américain.
 Il est spécialisé dans l'étude des rongeurs, il commence à publier en 1964 et est toujours actif.
 Ph.D., de l'Université du Michigan en 1967 avec A Systematic Study of the Mexican and Guatemalan Gray Squirrel, Sciurus aureogaster F. Cuvier (Rodentia: Sciuridae)
 </t>
@@ -513,7 +525,9 @@
           <t>Honneurs et distinctions</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Clinton Hart Merriam Award de l'American Society of Mammalogists en 1992. Présentation</t>
         </is>
